--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhi\Documents\DSA 450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\placement\DSA\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EEA87B-75D0-479B-8DBA-2149C0A22E5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B180C87-B4F9-4ABF-A6E4-019EF4266451}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1435,6 +1435,9 @@
   </si>
   <si>
     <t>&lt; Yes /No&gt;</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1864,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1877,17 +1880,17 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1898,12 +1901,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="C5" s="4" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
+      <c r="D5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1913,8 +1919,11 @@
       <c r="C6" s="4" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
+      <c r="D6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1936,7 +1945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1947,7 +1956,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1980,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2002,7 +2011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
